--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117291.1264828446</v>
+        <v>20831106.62263542</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117291.1264828446</v>
+        <v>20831106.62263542</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7234.671760797569</v>
+        <v>802445.7430920487</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7234.671760797569</v>
+        <v>802445.7430920487</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188630365.815264</v>
+        <v>48056708.93714087</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9112.698282751688</v>
+        <v>1047973.980909334</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17590.49925572564</v>
+        <v>2020523.619996812</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26160.67673268192</v>
+        <v>2993073.259084293</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34900.0585317648</v>
+        <v>3967312.287269257</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43767.14955529302</v>
+        <v>4941394.981105812</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52365.72592301082</v>
+        <v>5915477.674942364</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61128.84147878631</v>
+        <v>6889560.368778914</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69978.12739759368</v>
+        <v>7863643.062615464</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78643.62187947321</v>
+        <v>8798381.549522521</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87210.04621339661</v>
+        <v>9772801.0448601</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95728.80550344594</v>
+        <v>10744582.0552722</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104083.1788777244</v>
+        <v>11715360.86971414</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112407.7351498387</v>
+        <v>12686245.0104062</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121184.1360985218</v>
+        <v>13598120.56965635</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130415.7822113723</v>
+        <v>14458530.45426099</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>370</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>360</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>254</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>69</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
